--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Fall.120619.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Koski.Fall.120619.xlsx_with_dialog_acts.xlsx
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2025,12 +2025,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2151,12 +2151,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3289,12 +3289,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3541,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4213,12 +4213,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5053,12 +5053,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5641,12 +5641,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5725,12 +5725,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5767,12 +5767,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5809,12 +5809,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5851,12 +5851,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7745,12 +7745,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8123,12 +8123,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8165,12 +8165,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8291,12 +8291,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8463,12 +8463,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8803,12 +8803,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9269,12 +9269,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9395,12 +9395,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9731,12 +9731,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9857,12 +9857,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9941,12 +9941,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11327,12 +11327,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12041,12 +12041,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12209,12 +12209,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12461,12 +12461,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12545,12 +12545,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12629,12 +12629,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12671,12 +12671,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12755,12 +12755,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13049,12 +13049,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14225,12 +14225,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14519,12 +14519,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15191,12 +15191,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15275,12 +15275,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15359,12 +15359,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15401,12 +15401,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15779,12 +15779,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16031,12 +16031,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16619,12 +16619,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16997,12 +16997,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17123,12 +17123,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17165,12 +17165,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17333,12 +17333,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17669,12 +17669,12 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17753,12 +17753,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17963,12 +17963,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18089,12 +18089,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18513,12 +18513,12 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18555,12 +18555,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18597,12 +18597,12 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18723,12 +18723,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18765,12 +18765,12 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18891,12 +18891,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19017,12 +19017,12 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19059,12 +19059,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19143,12 +19143,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19185,12 +19185,12 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19269,12 +19269,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19819,12 +19819,12 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20995,12 +20995,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21037,12 +21037,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21793,12 +21793,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21919,12 +21919,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23225,12 +23225,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23267,12 +23267,12 @@
       <c r="H543" t="inlineStr"/>
       <c r="I543" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24441,12 +24441,12 @@
       <c r="H571" t="inlineStr"/>
       <c r="I571" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24693,12 +24693,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25197,12 +25197,12 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25411,12 +25411,12 @@
       <c r="H594" t="inlineStr"/>
       <c r="I594" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25579,12 +25579,12 @@
       <c r="H598" t="inlineStr"/>
       <c r="I598" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25621,12 +25621,12 @@
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25663,12 +25663,12 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25789,12 +25789,12 @@
       <c r="H603" t="inlineStr"/>
       <c r="I603" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26293,12 +26293,12 @@
       <c r="H615" t="inlineStr"/>
       <c r="I615" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26335,12 +26335,12 @@
       <c r="H616" t="inlineStr"/>
       <c r="I616" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26545,12 +26545,12 @@
       <c r="H621" t="inlineStr"/>
       <c r="I621" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26801,12 +26801,12 @@
       <c r="H627" t="inlineStr"/>
       <c r="I627" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27179,12 +27179,12 @@
       <c r="H636" t="inlineStr"/>
       <c r="I636" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27347,12 +27347,12 @@
       <c r="H640" t="inlineStr"/>
       <c r="I640" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27893,12 +27893,12 @@
       <c r="H653" t="inlineStr"/>
       <c r="I653" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27977,12 +27977,12 @@
       <c r="H655" t="inlineStr"/>
       <c r="I655" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28103,12 +28103,12 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
